--- a/previousWork/Algae Analysis.xlsx
+++ b/previousWork/Algae Analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC1048C119D8776E5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FB3DB1-A376-467D-BAB9-6BFECA2F8F71}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1016,8 +1016,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3710547" y="121284"/>
-          <a:ext cx="5736495" cy="6055019"/>
+          <a:off x="3713478" y="124459"/>
+          <a:ext cx="5724527" cy="5913121"/>
           <a:chOff x="4561838" y="387984"/>
           <a:chExt cx="5727702" cy="5969636"/>
         </a:xfrm>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
